--- a/lib/course_catalog.xlsx
+++ b/lib/course_catalog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnzhao/Desktop/development/keepup/keepbackend/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brandon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>Undergraduate Open Seminar</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Flag Hall</t>
   </si>
   <si>
-    <t>Quantitative Lab Analysis</t>
-  </si>
-  <si>
     <t>CHEM</t>
   </si>
   <si>
@@ -96,6 +93,220 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>RLST</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>PSYC</t>
+  </si>
+  <si>
+    <t>ECON</t>
+  </si>
+  <si>
+    <t>ACCY</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>PHIL</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>ATMS</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>BTW</t>
+  </si>
+  <si>
+    <t>ANSC</t>
+  </si>
+  <si>
+    <t>MACS</t>
+  </si>
+  <si>
+    <t>Accounting and Accountancy I</t>
+  </si>
+  <si>
+    <t>Business Instructional Fac</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Cognitive Psych</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Economic Statistics II</t>
+  </si>
+  <si>
+    <t>901 W Oregon</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Intro To The Media</t>
+  </si>
+  <si>
+    <t>Gregory Hall</t>
+  </si>
+  <si>
+    <t>Companion Animals In Society</t>
+  </si>
+  <si>
+    <t>Principles Bus Comm</t>
+  </si>
+  <si>
+    <t>English Building</t>
+  </si>
+  <si>
+    <t>Financial Markets</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>The Legal Environment of Bus</t>
+  </si>
+  <si>
+    <t>Calculus III</t>
+  </si>
+  <si>
+    <t>Altgeld Hall</t>
+  </si>
+  <si>
+    <t>Henry Administration Bldg</t>
+  </si>
+  <si>
+    <t>Climate and Global Change</t>
+  </si>
+  <si>
+    <t>Burrill Hall</t>
+  </si>
+  <si>
+    <t>Intro Computing: Non-Tech</t>
+  </si>
+  <si>
+    <t>Foellinger Auditorium</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>70B</t>
+  </si>
+  <si>
+    <t>Economics Statistics I</t>
+  </si>
+  <si>
+    <t>David Kinley Hall</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>World Religions</t>
+  </si>
+  <si>
+    <t>THEAT</t>
+  </si>
+  <si>
+    <t>Lincoln Hall</t>
+  </si>
+  <si>
+    <t>World Religion</t>
+  </si>
+  <si>
+    <t>Foreign Languages Building</t>
+  </si>
+  <si>
+    <t>Mgmt and Organization Beh</t>
+  </si>
+  <si>
+    <t>Economics Statistics II</t>
+  </si>
+  <si>
+    <t>Environmental Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armory </t>
+  </si>
+  <si>
+    <t>Introduction to Philosophy</t>
+  </si>
+  <si>
+    <t>Everitt Elec &amp; Comp Engr Lab</t>
+  </si>
+  <si>
+    <t>South Slavic Cultures</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>R</t>
+    </r>
+  </si>
+  <si>
+    <t>Armory</t>
+  </si>
+  <si>
+    <t>Macroeconomics Principles</t>
+  </si>
+  <si>
+    <t>Intro to Psych</t>
+  </si>
+  <si>
+    <t>Foundations of Education-ACP</t>
+  </si>
+  <si>
+    <t>42A</t>
+  </si>
+  <si>
+    <t>Education Building</t>
+  </si>
+  <si>
+    <t>Animal Sciences Laboratory</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>Quantitative Analysis Lab</t>
+  </si>
+  <si>
+    <t>Noyes Laboratory</t>
+  </si>
+  <si>
+    <t>Quantitative Analysis Lecture</t>
   </si>
 </sst>
 </file>
@@ -103,9 +314,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +328,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -147,10 +363,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,28 +668,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -496,7 +715,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -522,7 +741,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -548,7 +767,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -574,15 +793,15 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>222</v>
@@ -594,12 +813,1052 @@
         <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>223</v>
+      </c>
+      <c r="D7" s="2">
+        <v>31602</v>
+      </c>
+      <c r="E7" s="2">
+        <v>457</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2">
+        <v>58841</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>202</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31915</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35514</v>
+      </c>
+      <c r="E10" s="2">
+        <v>141</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2">
+        <v>37772</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201</v>
+      </c>
+      <c r="D12" s="2">
+        <v>36474</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2">
+        <v>55536</v>
+      </c>
+      <c r="E13" s="2">
+        <v>176</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>115</v>
+      </c>
+      <c r="D14" s="2">
+        <v>62966</v>
+      </c>
+      <c r="E14" s="2">
+        <v>328</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2">
+        <v>34620</v>
+      </c>
+      <c r="E15" s="2">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2">
+        <v>55520</v>
+      </c>
+      <c r="E16" s="2">
+        <v>101</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2">
+        <v>35823</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>203</v>
+      </c>
+      <c r="D18" s="2">
+        <v>37869</v>
+      </c>
+      <c r="E18" s="2">
+        <v>141</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>310</v>
+      </c>
+      <c r="D19" s="2">
+        <v>29649</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2">
+        <v>38457</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>202</v>
+      </c>
+      <c r="D21" s="2">
+        <v>37859</v>
+      </c>
+      <c r="E21" s="2">
+        <v>114</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>201</v>
+      </c>
+      <c r="D22" s="2">
+        <v>36477</v>
+      </c>
+      <c r="E22" s="2">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2">
+        <v>35823</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>149</v>
+      </c>
+      <c r="D24" s="2">
+        <v>55849</v>
+      </c>
+      <c r="E24" s="2">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>241</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51397</v>
+      </c>
+      <c r="E25" s="2">
+        <v>314</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>300</v>
+      </c>
+      <c r="D26" s="2">
+        <v>37427</v>
+      </c>
+      <c r="E26" s="2">
+        <v>226</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>199</v>
+      </c>
+      <c r="D27" s="2">
+        <v>51271</v>
+      </c>
+      <c r="E27" s="2">
+        <v>243</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2">
+        <v>37983</v>
+      </c>
+      <c r="E28" s="2">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>250</v>
+      </c>
+      <c r="D29" s="2">
+        <v>53235</v>
+      </c>
+      <c r="E29" s="2">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>300</v>
+      </c>
+      <c r="D30" s="2">
+        <v>62985</v>
+      </c>
+      <c r="E30" s="2">
+        <v>66</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>241</v>
+      </c>
+      <c r="D31" s="2">
+        <v>51399</v>
+      </c>
+      <c r="E31" s="2">
+        <v>143</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>105</v>
+      </c>
+      <c r="D32" s="2">
+        <v>47175</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2">
+        <v>57648</v>
+      </c>
+      <c r="E34" s="2">
+        <v>123</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>203</v>
+      </c>
+      <c r="D35" s="2">
+        <v>37897</v>
+      </c>
+      <c r="E35" s="2">
+        <v>101</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>201</v>
+      </c>
+      <c r="D36" s="2">
+        <v>36516</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3063</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>224</v>
+      </c>
+      <c r="D37" s="2">
+        <v>30678</v>
+      </c>
+      <c r="E37" s="2">
+        <v>66</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>201</v>
+      </c>
+      <c r="D38" s="2">
+        <v>36496</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3057</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>202</v>
+      </c>
+      <c r="D39" s="2">
+        <v>37863</v>
+      </c>
+      <c r="E39" s="2">
+        <v>322</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
+        <v>110</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38459</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1120</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1">
+        <v>203</v>
+      </c>
+      <c r="D41" s="2">
+        <v>37876</v>
+      </c>
+      <c r="E41" s="2">
+        <v>101</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2">
+        <v>47176</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1">
+        <v>105</v>
+      </c>
+      <c r="D43" s="2">
+        <v>55540</v>
+      </c>
+      <c r="E43" s="2">
+        <v>176</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>101</v>
+      </c>
+      <c r="D44" s="2">
+        <v>34629</v>
+      </c>
+      <c r="E44" s="2">
+        <v>307</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="5">
+        <v>115</v>
+      </c>
+      <c r="D45" s="2">
+        <v>62966</v>
+      </c>
+      <c r="E45" s="2">
+        <v>386</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1">
+        <v>103</v>
+      </c>
+      <c r="D46" s="2">
+        <v>49941</v>
+      </c>
+      <c r="E46" s="2">
+        <v>115</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>202</v>
+      </c>
+      <c r="D47" s="2">
+        <v>31922</v>
+      </c>
+      <c r="E47" s="2">
+        <v>150</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/lib/course_catalog.xlsx
+++ b/lib/course_catalog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brandon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnzhao/Desktop/development/keepup/keepbackend/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,313 +1498,339 @@
         <v>45</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2">
+        <v>57648</v>
+      </c>
+      <c r="E33" s="2">
+        <v>123</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1">
+        <v>203</v>
+      </c>
+      <c r="D34" s="2">
+        <v>37897</v>
+      </c>
+      <c r="E34" s="2">
         <v>101</v>
       </c>
-      <c r="D34" s="2">
-        <v>57648</v>
-      </c>
-      <c r="E34" s="2">
-        <v>123</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="1">
+        <v>201</v>
+      </c>
+      <c r="D35" s="2">
+        <v>36516</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3063</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>224</v>
+      </c>
+      <c r="D36" s="2">
+        <v>30678</v>
+      </c>
+      <c r="E36" s="2">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1">
+        <v>201</v>
+      </c>
+      <c r="D37" s="2">
+        <v>36496</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3057</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1">
-        <v>203</v>
-      </c>
-      <c r="D35" s="2">
-        <v>37897</v>
-      </c>
-      <c r="E35" s="2">
-        <v>101</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1">
-        <v>201</v>
-      </c>
-      <c r="D36" s="2">
-        <v>36516</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3063</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1">
-        <v>224</v>
-      </c>
-      <c r="D37" s="2">
-        <v>30678</v>
-      </c>
-      <c r="E37" s="2">
-        <v>66</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D38" s="2">
-        <v>36496</v>
+        <v>37863</v>
       </c>
       <c r="E38" s="2">
-        <v>3057</v>
+        <v>322</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G38" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1">
+        <v>110</v>
+      </c>
+      <c r="D39" s="2">
+        <v>38459</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1">
-        <v>202</v>
-      </c>
-      <c r="D39" s="2">
-        <v>37863</v>
-      </c>
-      <c r="E39" s="2">
-        <v>322</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C40" s="1">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="D40" s="2">
-        <v>38459</v>
+        <v>37876</v>
       </c>
       <c r="E40" s="2">
-        <v>1120</v>
+        <v>101</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G40" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>105</v>
+      </c>
+      <c r="D41" s="2">
+        <v>47176</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="1">
-        <v>203</v>
-      </c>
-      <c r="D41" s="2">
-        <v>37876</v>
-      </c>
-      <c r="E41" s="2">
-        <v>101</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C42" s="1">
         <v>105</v>
       </c>
       <c r="D42" s="2">
-        <v>47176</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>55540</v>
+      </c>
+      <c r="E42" s="2">
+        <v>176</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="G42" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2">
-        <v>55540</v>
+        <v>34629</v>
       </c>
       <c r="E43" s="2">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G43" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="5">
+        <v>115</v>
+      </c>
+      <c r="D44" s="2">
+        <v>62966</v>
+      </c>
+      <c r="E44" s="2">
+        <v>386</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="1">
-        <v>101</v>
-      </c>
-      <c r="D44" s="2">
-        <v>34629</v>
-      </c>
-      <c r="E44" s="2">
-        <v>307</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="5">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1">
+        <v>103</v>
+      </c>
+      <c r="D45" s="2">
+        <v>49941</v>
+      </c>
+      <c r="E45" s="2">
         <v>115</v>
       </c>
-      <c r="D45" s="2">
-        <v>62966</v>
-      </c>
-      <c r="E45" s="2">
-        <v>386</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G45" s="3">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>45</v>
@@ -1812,53 +1838,27 @@
     </row>
     <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="D46" s="2">
-        <v>49941</v>
+        <v>31922</v>
       </c>
       <c r="E46" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G46" s="3">
-        <v>0.625</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1">
-        <v>202</v>
-      </c>
-      <c r="D47" s="2">
-        <v>31922</v>
-      </c>
-      <c r="E47" s="2">
-        <v>150</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="H47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
